--- a/data_clean/rr_table_up_interpolated.xlsx
+++ b/data_clean/rr_table_up_interpolated.xlsx
@@ -11400,231 +11400,6 @@
           <t>legumes</t>
         </is>
       </c>
-      <c r="AA7">
-        <v>0.015</v>
-      </c>
-      <c r="AB7">
-        <v>0.02746666666666667</v>
-      </c>
-      <c r="AC7">
-        <v>0.03993333333333333</v>
-      </c>
-      <c r="AD7">
-        <v>0.0524</v>
-      </c>
-      <c r="AE7">
-        <v>0.06486666666666667</v>
-      </c>
-      <c r="AF7">
-        <v>0.07733333333333334</v>
-      </c>
-      <c r="AG7">
-        <v>0.0898</v>
-      </c>
-      <c r="AH7">
-        <v>0.1022666666666667</v>
-      </c>
-      <c r="AI7">
-        <v>0.1147333333333333</v>
-      </c>
-      <c r="AJ7">
-        <v>0.1272</v>
-      </c>
-      <c r="AK7">
-        <v>0.1396666666666667</v>
-      </c>
-      <c r="AL7">
-        <v>0.1521333333333333</v>
-      </c>
-      <c r="AM7">
-        <v>0.1646</v>
-      </c>
-      <c r="AN7">
-        <v>0.1770666666666667</v>
-      </c>
-      <c r="AO7">
-        <v>0.1895333333333333</v>
-      </c>
-      <c r="AP7">
-        <v>0.202</v>
-      </c>
-      <c r="AQ7">
-        <v>0.2144666666666667</v>
-      </c>
-      <c r="AR7">
-        <v>0.2269333333333333</v>
-      </c>
-      <c r="AS7">
-        <v>0.2394</v>
-      </c>
-      <c r="AT7">
-        <v>0.2518666666666667</v>
-      </c>
-      <c r="AU7">
-        <v>0.2643333333333334</v>
-      </c>
-      <c r="AV7">
-        <v>0.2768</v>
-      </c>
-      <c r="AW7">
-        <v>0.2892666666666667</v>
-      </c>
-      <c r="AX7">
-        <v>0.3017333333333334</v>
-      </c>
-      <c r="AY7">
-        <v>0.3142</v>
-      </c>
-      <c r="AZ7">
-        <v>0.3266666666666667</v>
-      </c>
-      <c r="BA7">
-        <v>0.3391333333333334</v>
-      </c>
-      <c r="BB7">
-        <v>0.3516</v>
-      </c>
-      <c r="BC7">
-        <v>0.3640666666666667</v>
-      </c>
-      <c r="BD7">
-        <v>0.3765333333333334</v>
-      </c>
-      <c r="BE7">
-        <v>0.3890000000000001</v>
-      </c>
-      <c r="BF7">
-        <v>0.4014666666666667</v>
-      </c>
-      <c r="BG7">
-        <v>0.4139333333333334</v>
-      </c>
-      <c r="BH7">
-        <v>0.4264000000000001</v>
-      </c>
-      <c r="BI7">
-        <v>0.4388666666666667</v>
-      </c>
-      <c r="BJ7">
-        <v>0.4513333333333334</v>
-      </c>
-      <c r="BK7">
-        <v>0.4638</v>
-      </c>
-      <c r="BL7">
-        <v>0.4762666666666667</v>
-      </c>
-      <c r="BM7">
-        <v>0.4887333333333334</v>
-      </c>
-      <c r="BN7">
-        <v>0.5012</v>
-      </c>
-      <c r="BO7">
-        <v>0.5136666666666667</v>
-      </c>
-      <c r="BP7">
-        <v>0.5261333333333333</v>
-      </c>
-      <c r="BQ7">
-        <v>0.5386000000000001</v>
-      </c>
-      <c r="BR7">
-        <v>0.5510666666666667</v>
-      </c>
-      <c r="BS7">
-        <v>0.5635333333333333</v>
-      </c>
-      <c r="BT7">
-        <v>0.5760000000000001</v>
-      </c>
-      <c r="BU7">
-        <v>0.5884666666666667</v>
-      </c>
-      <c r="BV7">
-        <v>0.6009333333333334</v>
-      </c>
-      <c r="BW7">
-        <v>0.6134000000000001</v>
-      </c>
-      <c r="BX7">
-        <v>0.6258666666666667</v>
-      </c>
-      <c r="BY7">
-        <v>0.6383333333333333</v>
-      </c>
-      <c r="BZ7">
-        <v>0.6508</v>
-      </c>
-      <c r="CA7">
-        <v>0.6632666666666668</v>
-      </c>
-      <c r="CB7">
-        <v>0.6757333333333334</v>
-      </c>
-      <c r="CC7">
-        <v>0.6882</v>
-      </c>
-      <c r="CD7">
-        <v>0.7006666666666667</v>
-      </c>
-      <c r="CE7">
-        <v>0.7131333333333334</v>
-      </c>
-      <c r="CF7">
-        <v>0.7256</v>
-      </c>
-      <c r="CG7">
-        <v>0.7380666666666668</v>
-      </c>
-      <c r="CH7">
-        <v>0.7505333333333334</v>
-      </c>
-      <c r="CI7">
-        <v>0.7630000000000001</v>
-      </c>
-      <c r="CJ7">
-        <v>0.7754666666666667</v>
-      </c>
-      <c r="CK7">
-        <v>0.7879333333333334</v>
-      </c>
-      <c r="CL7">
-        <v>0.8004</v>
-      </c>
-      <c r="CM7">
-        <v>0.8128666666666667</v>
-      </c>
-      <c r="CN7">
-        <v>0.8253333333333335</v>
-      </c>
-      <c r="CO7">
-        <v>0.8378000000000001</v>
-      </c>
-      <c r="CP7">
-        <v>0.8502666666666667</v>
-      </c>
-      <c r="CQ7">
-        <v>0.8627333333333334</v>
-      </c>
-      <c r="CR7">
-        <v>0.8752000000000001</v>
-      </c>
-      <c r="CS7">
-        <v>0.8876666666666667</v>
-      </c>
-      <c r="CT7">
-        <v>0.9001333333333333</v>
-      </c>
-      <c r="CU7">
-        <v>0.9126000000000001</v>
-      </c>
-      <c r="CV7">
-        <v>0.9250666666666668</v>
-      </c>
-      <c r="CW7">
-        <v>0.9375333333333334</v>
-      </c>
       <c r="CX7">
         <v>0.9500000000000001</v>
       </c>

--- a/data_clean/rr_table_up_interpolated.xlsx
+++ b/data_clean/rr_table_up_interpolated.xlsx
@@ -4685,6 +4685,306 @@
           <t>dairy</t>
         </is>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>1</v>
+      </c>
+      <c r="AS3">
+        <v>1</v>
+      </c>
+      <c r="AT3">
+        <v>1</v>
+      </c>
+      <c r="AU3">
+        <v>1</v>
+      </c>
+      <c r="AV3">
+        <v>1</v>
+      </c>
+      <c r="AW3">
+        <v>1</v>
+      </c>
+      <c r="AX3">
+        <v>1</v>
+      </c>
+      <c r="AY3">
+        <v>1</v>
+      </c>
+      <c r="AZ3">
+        <v>1</v>
+      </c>
+      <c r="BA3">
+        <v>1</v>
+      </c>
+      <c r="BB3">
+        <v>1</v>
+      </c>
+      <c r="BC3">
+        <v>1</v>
+      </c>
+      <c r="BD3">
+        <v>1</v>
+      </c>
+      <c r="BE3">
+        <v>1</v>
+      </c>
+      <c r="BF3">
+        <v>1</v>
+      </c>
+      <c r="BG3">
+        <v>1</v>
+      </c>
+      <c r="BH3">
+        <v>1</v>
+      </c>
+      <c r="BI3">
+        <v>1</v>
+      </c>
+      <c r="BJ3">
+        <v>1</v>
+      </c>
+      <c r="BK3">
+        <v>1</v>
+      </c>
+      <c r="BL3">
+        <v>1</v>
+      </c>
+      <c r="BM3">
+        <v>1</v>
+      </c>
+      <c r="BN3">
+        <v>1</v>
+      </c>
+      <c r="BO3">
+        <v>1</v>
+      </c>
+      <c r="BP3">
+        <v>1</v>
+      </c>
+      <c r="BQ3">
+        <v>1</v>
+      </c>
+      <c r="BR3">
+        <v>1</v>
+      </c>
+      <c r="BS3">
+        <v>1</v>
+      </c>
+      <c r="BT3">
+        <v>1</v>
+      </c>
+      <c r="BU3">
+        <v>1</v>
+      </c>
+      <c r="BV3">
+        <v>1</v>
+      </c>
+      <c r="BW3">
+        <v>1</v>
+      </c>
+      <c r="BX3">
+        <v>1</v>
+      </c>
+      <c r="BY3">
+        <v>1</v>
+      </c>
+      <c r="BZ3">
+        <v>1</v>
+      </c>
+      <c r="CA3">
+        <v>1</v>
+      </c>
+      <c r="CB3">
+        <v>1</v>
+      </c>
+      <c r="CC3">
+        <v>1</v>
+      </c>
+      <c r="CD3">
+        <v>1</v>
+      </c>
+      <c r="CE3">
+        <v>1</v>
+      </c>
+      <c r="CF3">
+        <v>1</v>
+      </c>
+      <c r="CG3">
+        <v>1</v>
+      </c>
+      <c r="CH3">
+        <v>1</v>
+      </c>
+      <c r="CI3">
+        <v>1</v>
+      </c>
+      <c r="CJ3">
+        <v>1</v>
+      </c>
+      <c r="CK3">
+        <v>1</v>
+      </c>
+      <c r="CL3">
+        <v>1</v>
+      </c>
+      <c r="CM3">
+        <v>1</v>
+      </c>
+      <c r="CN3">
+        <v>1</v>
+      </c>
+      <c r="CO3">
+        <v>1</v>
+      </c>
+      <c r="CP3">
+        <v>1</v>
+      </c>
+      <c r="CQ3">
+        <v>1</v>
+      </c>
+      <c r="CR3">
+        <v>1</v>
+      </c>
+      <c r="CS3">
+        <v>1</v>
+      </c>
+      <c r="CT3">
+        <v>1</v>
+      </c>
+      <c r="CU3">
+        <v>1</v>
+      </c>
+      <c r="CV3">
+        <v>1</v>
+      </c>
+      <c r="CW3">
+        <v>1</v>
+      </c>
       <c r="CX3">
         <v>1</v>
       </c>
@@ -6795,6 +7095,81 @@
           <t>eggs</t>
         </is>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.0016</v>
+      </c>
+      <c r="D4">
+        <v>1.0032</v>
+      </c>
+      <c r="E4">
+        <v>1.0048</v>
+      </c>
+      <c r="F4">
+        <v>1.0064</v>
+      </c>
+      <c r="G4">
+        <v>1.008</v>
+      </c>
+      <c r="H4">
+        <v>1.0096</v>
+      </c>
+      <c r="I4">
+        <v>1.0112</v>
+      </c>
+      <c r="J4">
+        <v>1.0128</v>
+      </c>
+      <c r="K4">
+        <v>1.0144</v>
+      </c>
+      <c r="L4">
+        <v>1.016</v>
+      </c>
+      <c r="M4">
+        <v>1.0176</v>
+      </c>
+      <c r="N4">
+        <v>1.0192</v>
+      </c>
+      <c r="O4">
+        <v>1.0208</v>
+      </c>
+      <c r="P4">
+        <v>1.0224</v>
+      </c>
+      <c r="Q4">
+        <v>1.024</v>
+      </c>
+      <c r="R4">
+        <v>1.0256</v>
+      </c>
+      <c r="S4">
+        <v>1.0272</v>
+      </c>
+      <c r="T4">
+        <v>1.0288</v>
+      </c>
+      <c r="U4">
+        <v>1.0304</v>
+      </c>
+      <c r="V4">
+        <v>1.032</v>
+      </c>
+      <c r="W4">
+        <v>1.0336</v>
+      </c>
+      <c r="X4">
+        <v>1.0352</v>
+      </c>
+      <c r="Y4">
+        <v>1.0368</v>
+      </c>
+      <c r="Z4">
+        <v>1.0384</v>
+      </c>
       <c r="AA4">
         <v>1.04</v>
       </c>
@@ -7330,6 +7705,156 @@
           <t>fish</t>
         </is>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.9995000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.999</v>
+      </c>
+      <c r="E5">
+        <v>0.9984999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.998</v>
+      </c>
+      <c r="G5">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="H5">
+        <v>0.997</v>
+      </c>
+      <c r="I5">
+        <v>0.9964999999999999</v>
+      </c>
+      <c r="J5">
+        <v>0.996</v>
+      </c>
+      <c r="K5">
+        <v>0.9955000000000001</v>
+      </c>
+      <c r="L5">
+        <v>0.995</v>
+      </c>
+      <c r="M5">
+        <v>0.9944999999999999</v>
+      </c>
+      <c r="N5">
+        <v>0.994</v>
+      </c>
+      <c r="O5">
+        <v>0.9935</v>
+      </c>
+      <c r="P5">
+        <v>0.993</v>
+      </c>
+      <c r="Q5">
+        <v>0.9924999999999999</v>
+      </c>
+      <c r="R5">
+        <v>0.992</v>
+      </c>
+      <c r="S5">
+        <v>0.9915</v>
+      </c>
+      <c r="T5">
+        <v>0.991</v>
+      </c>
+      <c r="U5">
+        <v>0.9904999999999999</v>
+      </c>
+      <c r="V5">
+        <v>0.99</v>
+      </c>
+      <c r="W5">
+        <v>0.9895</v>
+      </c>
+      <c r="X5">
+        <v>0.989</v>
+      </c>
+      <c r="Y5">
+        <v>0.9884999999999999</v>
+      </c>
+      <c r="Z5">
+        <v>0.988</v>
+      </c>
+      <c r="AA5">
+        <v>0.9875</v>
+      </c>
+      <c r="AB5">
+        <v>0.987</v>
+      </c>
+      <c r="AC5">
+        <v>0.9864999999999999</v>
+      </c>
+      <c r="AD5">
+        <v>0.986</v>
+      </c>
+      <c r="AE5">
+        <v>0.9855</v>
+      </c>
+      <c r="AF5">
+        <v>0.985</v>
+      </c>
+      <c r="AG5">
+        <v>0.9844999999999999</v>
+      </c>
+      <c r="AH5">
+        <v>0.984</v>
+      </c>
+      <c r="AI5">
+        <v>0.9835</v>
+      </c>
+      <c r="AJ5">
+        <v>0.983</v>
+      </c>
+      <c r="AK5">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="AL5">
+        <v>0.982</v>
+      </c>
+      <c r="AM5">
+        <v>0.9815</v>
+      </c>
+      <c r="AN5">
+        <v>0.981</v>
+      </c>
+      <c r="AO5">
+        <v>0.9804999999999999</v>
+      </c>
+      <c r="AP5">
+        <v>0.98</v>
+      </c>
+      <c r="AQ5">
+        <v>0.9795</v>
+      </c>
+      <c r="AR5">
+        <v>0.979</v>
+      </c>
+      <c r="AS5">
+        <v>0.9784999999999999</v>
+      </c>
+      <c r="AT5">
+        <v>0.978</v>
+      </c>
+      <c r="AU5">
+        <v>0.9775</v>
+      </c>
+      <c r="AV5">
+        <v>0.977</v>
+      </c>
+      <c r="AW5">
+        <v>0.9764999999999999</v>
+      </c>
+      <c r="AX5">
+        <v>0.976</v>
+      </c>
+      <c r="AY5">
+        <v>0.9755</v>
+      </c>
       <c r="AZ5">
         <v>0.975</v>
       </c>
@@ -11400,6 +11925,306 @@
           <t>legumes</t>
         </is>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0.9995000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.999</v>
+      </c>
+      <c r="E7">
+        <v>0.9985000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.998</v>
+      </c>
+      <c r="G7">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="H7">
+        <v>0.997</v>
+      </c>
+      <c r="I7">
+        <v>0.9965000000000001</v>
+      </c>
+      <c r="J7">
+        <v>0.996</v>
+      </c>
+      <c r="K7">
+        <v>0.9955000000000001</v>
+      </c>
+      <c r="L7">
+        <v>0.995</v>
+      </c>
+      <c r="M7">
+        <v>0.9945000000000001</v>
+      </c>
+      <c r="N7">
+        <v>0.994</v>
+      </c>
+      <c r="O7">
+        <v>0.9935</v>
+      </c>
+      <c r="P7">
+        <v>0.993</v>
+      </c>
+      <c r="Q7">
+        <v>0.9925</v>
+      </c>
+      <c r="R7">
+        <v>0.992</v>
+      </c>
+      <c r="S7">
+        <v>0.9915</v>
+      </c>
+      <c r="T7">
+        <v>0.991</v>
+      </c>
+      <c r="U7">
+        <v>0.9905</v>
+      </c>
+      <c r="V7">
+        <v>0.99</v>
+      </c>
+      <c r="W7">
+        <v>0.9895</v>
+      </c>
+      <c r="X7">
+        <v>0.989</v>
+      </c>
+      <c r="Y7">
+        <v>0.9885</v>
+      </c>
+      <c r="Z7">
+        <v>0.988</v>
+      </c>
+      <c r="AA7">
+        <v>0.9875</v>
+      </c>
+      <c r="AB7">
+        <v>0.987</v>
+      </c>
+      <c r="AC7">
+        <v>0.9865</v>
+      </c>
+      <c r="AD7">
+        <v>0.986</v>
+      </c>
+      <c r="AE7">
+        <v>0.9855</v>
+      </c>
+      <c r="AF7">
+        <v>0.985</v>
+      </c>
+      <c r="AG7">
+        <v>0.9845</v>
+      </c>
+      <c r="AH7">
+        <v>0.984</v>
+      </c>
+      <c r="AI7">
+        <v>0.9835</v>
+      </c>
+      <c r="AJ7">
+        <v>0.983</v>
+      </c>
+      <c r="AK7">
+        <v>0.9825</v>
+      </c>
+      <c r="AL7">
+        <v>0.982</v>
+      </c>
+      <c r="AM7">
+        <v>0.9815</v>
+      </c>
+      <c r="AN7">
+        <v>0.981</v>
+      </c>
+      <c r="AO7">
+        <v>0.9805</v>
+      </c>
+      <c r="AP7">
+        <v>0.98</v>
+      </c>
+      <c r="AQ7">
+        <v>0.9795</v>
+      </c>
+      <c r="AR7">
+        <v>0.979</v>
+      </c>
+      <c r="AS7">
+        <v>0.9785</v>
+      </c>
+      <c r="AT7">
+        <v>0.978</v>
+      </c>
+      <c r="AU7">
+        <v>0.9775</v>
+      </c>
+      <c r="AV7">
+        <v>0.977</v>
+      </c>
+      <c r="AW7">
+        <v>0.9765</v>
+      </c>
+      <c r="AX7">
+        <v>0.976</v>
+      </c>
+      <c r="AY7">
+        <v>0.9755</v>
+      </c>
+      <c r="AZ7">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="BA7">
+        <v>0.9745</v>
+      </c>
+      <c r="BB7">
+        <v>0.974</v>
+      </c>
+      <c r="BC7">
+        <v>0.9735</v>
+      </c>
+      <c r="BD7">
+        <v>0.9730000000000001</v>
+      </c>
+      <c r="BE7">
+        <v>0.9725</v>
+      </c>
+      <c r="BF7">
+        <v>0.9720000000000001</v>
+      </c>
+      <c r="BG7">
+        <v>0.9715</v>
+      </c>
+      <c r="BH7">
+        <v>0.9710000000000001</v>
+      </c>
+      <c r="BI7">
+        <v>0.9705</v>
+      </c>
+      <c r="BJ7">
+        <v>0.9700000000000001</v>
+      </c>
+      <c r="BK7">
+        <v>0.9695</v>
+      </c>
+      <c r="BL7">
+        <v>0.9690000000000001</v>
+      </c>
+      <c r="BM7">
+        <v>0.9685</v>
+      </c>
+      <c r="BN7">
+        <v>0.9680000000000001</v>
+      </c>
+      <c r="BO7">
+        <v>0.9675</v>
+      </c>
+      <c r="BP7">
+        <v>0.9670000000000001</v>
+      </c>
+      <c r="BQ7">
+        <v>0.9665</v>
+      </c>
+      <c r="BR7">
+        <v>0.9660000000000001</v>
+      </c>
+      <c r="BS7">
+        <v>0.9655</v>
+      </c>
+      <c r="BT7">
+        <v>0.9650000000000001</v>
+      </c>
+      <c r="BU7">
+        <v>0.9645</v>
+      </c>
+      <c r="BV7">
+        <v>0.9640000000000001</v>
+      </c>
+      <c r="BW7">
+        <v>0.9635</v>
+      </c>
+      <c r="BX7">
+        <v>0.9630000000000001</v>
+      </c>
+      <c r="BY7">
+        <v>0.9625</v>
+      </c>
+      <c r="BZ7">
+        <v>0.9620000000000001</v>
+      </c>
+      <c r="CA7">
+        <v>0.9615</v>
+      </c>
+      <c r="CB7">
+        <v>0.9610000000000001</v>
+      </c>
+      <c r="CC7">
+        <v>0.9605</v>
+      </c>
+      <c r="CD7">
+        <v>0.9600000000000001</v>
+      </c>
+      <c r="CE7">
+        <v>0.9595</v>
+      </c>
+      <c r="CF7">
+        <v>0.9590000000000001</v>
+      </c>
+      <c r="CG7">
+        <v>0.9585</v>
+      </c>
+      <c r="CH7">
+        <v>0.9580000000000001</v>
+      </c>
+      <c r="CI7">
+        <v>0.9575</v>
+      </c>
+      <c r="CJ7">
+        <v>0.9570000000000001</v>
+      </c>
+      <c r="CK7">
+        <v>0.9565</v>
+      </c>
+      <c r="CL7">
+        <v>0.9560000000000001</v>
+      </c>
+      <c r="CM7">
+        <v>0.9555</v>
+      </c>
+      <c r="CN7">
+        <v>0.9550000000000001</v>
+      </c>
+      <c r="CO7">
+        <v>0.9545</v>
+      </c>
+      <c r="CP7">
+        <v>0.9540000000000001</v>
+      </c>
+      <c r="CQ7">
+        <v>0.9535</v>
+      </c>
+      <c r="CR7">
+        <v>0.9530000000000001</v>
+      </c>
+      <c r="CS7">
+        <v>0.9525000000000001</v>
+      </c>
+      <c r="CT7">
+        <v>0.9520000000000001</v>
+      </c>
+      <c r="CU7">
+        <v>0.9515</v>
+      </c>
+      <c r="CV7">
+        <v>0.9510000000000001</v>
+      </c>
+      <c r="CW7">
+        <v>0.9505000000000001</v>
+      </c>
       <c r="CX7">
         <v>0.9500000000000001</v>
       </c>
@@ -12910,6 +13735,81 @@
           <t>nuts</t>
         </is>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.9944</v>
+      </c>
+      <c r="D8">
+        <v>0.9888</v>
+      </c>
+      <c r="E8">
+        <v>0.9832</v>
+      </c>
+      <c r="F8">
+        <v>0.9776</v>
+      </c>
+      <c r="G8">
+        <v>0.972</v>
+      </c>
+      <c r="H8">
+        <v>0.9664</v>
+      </c>
+      <c r="I8">
+        <v>0.9608</v>
+      </c>
+      <c r="J8">
+        <v>0.9552</v>
+      </c>
+      <c r="K8">
+        <v>0.9496</v>
+      </c>
+      <c r="L8">
+        <v>0.944</v>
+      </c>
+      <c r="M8">
+        <v>0.9384</v>
+      </c>
+      <c r="N8">
+        <v>0.9328</v>
+      </c>
+      <c r="O8">
+        <v>0.9272</v>
+      </c>
+      <c r="P8">
+        <v>0.9216</v>
+      </c>
+      <c r="Q8">
+        <v>0.916</v>
+      </c>
+      <c r="R8">
+        <v>0.9104</v>
+      </c>
+      <c r="S8">
+        <v>0.9047999999999999</v>
+      </c>
+      <c r="T8">
+        <v>0.8992</v>
+      </c>
+      <c r="U8">
+        <v>0.8935999999999999</v>
+      </c>
+      <c r="V8">
+        <v>0.888</v>
+      </c>
+      <c r="W8">
+        <v>0.8824</v>
+      </c>
+      <c r="X8">
+        <v>0.8768</v>
+      </c>
+      <c r="Y8">
+        <v>0.8712</v>
+      </c>
+      <c r="Z8">
+        <v>0.8655999999999999</v>
+      </c>
       <c r="AA8">
         <v>0.86</v>
       </c>
@@ -16915,6 +17815,156 @@
           <t>reffined_grains</t>
         </is>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
+        <v>1</v>
+      </c>
+      <c r="AP11">
+        <v>1</v>
+      </c>
+      <c r="AQ11">
+        <v>1</v>
+      </c>
+      <c r="AR11">
+        <v>1</v>
+      </c>
+      <c r="AS11">
+        <v>1</v>
+      </c>
+      <c r="AT11">
+        <v>1</v>
+      </c>
+      <c r="AU11">
+        <v>1</v>
+      </c>
+      <c r="AV11">
+        <v>1</v>
+      </c>
+      <c r="AW11">
+        <v>1</v>
+      </c>
+      <c r="AX11">
+        <v>1</v>
+      </c>
+      <c r="AY11">
+        <v>1</v>
+      </c>
       <c r="AZ11">
         <v>1</v>
       </c>
@@ -20685,6 +21735,156 @@
           <t>vegetables</t>
         </is>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0.9989</v>
+      </c>
+      <c r="D13">
+        <v>0.9978</v>
+      </c>
+      <c r="E13">
+        <v>0.9967</v>
+      </c>
+      <c r="F13">
+        <v>0.9956</v>
+      </c>
+      <c r="G13">
+        <v>0.9945000000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.9934000000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.9923</v>
+      </c>
+      <c r="J13">
+        <v>0.9912</v>
+      </c>
+      <c r="K13">
+        <v>0.9901</v>
+      </c>
+      <c r="L13">
+        <v>0.989</v>
+      </c>
+      <c r="M13">
+        <v>0.9879</v>
+      </c>
+      <c r="N13">
+        <v>0.9868</v>
+      </c>
+      <c r="O13">
+        <v>0.9857</v>
+      </c>
+      <c r="P13">
+        <v>0.9846</v>
+      </c>
+      <c r="Q13">
+        <v>0.9835</v>
+      </c>
+      <c r="R13">
+        <v>0.9824000000000001</v>
+      </c>
+      <c r="S13">
+        <v>0.9813000000000001</v>
+      </c>
+      <c r="T13">
+        <v>0.9802000000000001</v>
+      </c>
+      <c r="U13">
+        <v>0.9791</v>
+      </c>
+      <c r="V13">
+        <v>0.978</v>
+      </c>
+      <c r="W13">
+        <v>0.9769</v>
+      </c>
+      <c r="X13">
+        <v>0.9758</v>
+      </c>
+      <c r="Y13">
+        <v>0.9747</v>
+      </c>
+      <c r="Z13">
+        <v>0.9736</v>
+      </c>
+      <c r="AA13">
+        <v>0.9725</v>
+      </c>
+      <c r="AB13">
+        <v>0.9714</v>
+      </c>
+      <c r="AC13">
+        <v>0.9703000000000001</v>
+      </c>
+      <c r="AD13">
+        <v>0.9692000000000001</v>
+      </c>
+      <c r="AE13">
+        <v>0.9681000000000001</v>
+      </c>
+      <c r="AF13">
+        <v>0.9670000000000001</v>
+      </c>
+      <c r="AG13">
+        <v>0.9659</v>
+      </c>
+      <c r="AH13">
+        <v>0.9648</v>
+      </c>
+      <c r="AI13">
+        <v>0.9637</v>
+      </c>
+      <c r="AJ13">
+        <v>0.9626</v>
+      </c>
+      <c r="AK13">
+        <v>0.9615</v>
+      </c>
+      <c r="AL13">
+        <v>0.9604</v>
+      </c>
+      <c r="AM13">
+        <v>0.9593</v>
+      </c>
+      <c r="AN13">
+        <v>0.9582000000000001</v>
+      </c>
+      <c r="AO13">
+        <v>0.9571000000000001</v>
+      </c>
+      <c r="AP13">
+        <v>0.9560000000000001</v>
+      </c>
+      <c r="AQ13">
+        <v>0.9549000000000001</v>
+      </c>
+      <c r="AR13">
+        <v>0.9538000000000001</v>
+      </c>
+      <c r="AS13">
+        <v>0.9527000000000001</v>
+      </c>
+      <c r="AT13">
+        <v>0.9516</v>
+      </c>
+      <c r="AU13">
+        <v>0.9505</v>
+      </c>
+      <c r="AV13">
+        <v>0.9494</v>
+      </c>
+      <c r="AW13">
+        <v>0.9483</v>
+      </c>
+      <c r="AX13">
+        <v>0.9472</v>
+      </c>
+      <c r="AY13">
+        <v>0.9461000000000001</v>
+      </c>
       <c r="AZ13">
         <v>0.9450000000000001</v>
       </c>
@@ -24154,6 +25354,156 @@
         <is>
           <t>whole_grains</t>
         </is>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0.9976</v>
+      </c>
+      <c r="D15">
+        <v>0.9952</v>
+      </c>
+      <c r="E15">
+        <v>0.9928</v>
+      </c>
+      <c r="F15">
+        <v>0.9903999999999999</v>
+      </c>
+      <c r="G15">
+        <v>0.988</v>
+      </c>
+      <c r="H15">
+        <v>0.9856</v>
+      </c>
+      <c r="I15">
+        <v>0.9832</v>
+      </c>
+      <c r="J15">
+        <v>0.9808</v>
+      </c>
+      <c r="K15">
+        <v>0.9784</v>
+      </c>
+      <c r="L15">
+        <v>0.976</v>
+      </c>
+      <c r="M15">
+        <v>0.9736</v>
+      </c>
+      <c r="N15">
+        <v>0.9712</v>
+      </c>
+      <c r="O15">
+        <v>0.9688</v>
+      </c>
+      <c r="P15">
+        <v>0.9664</v>
+      </c>
+      <c r="Q15">
+        <v>0.964</v>
+      </c>
+      <c r="R15">
+        <v>0.9616</v>
+      </c>
+      <c r="S15">
+        <v>0.9592000000000001</v>
+      </c>
+      <c r="T15">
+        <v>0.9568</v>
+      </c>
+      <c r="U15">
+        <v>0.9544</v>
+      </c>
+      <c r="V15">
+        <v>0.952</v>
+      </c>
+      <c r="W15">
+        <v>0.9496</v>
+      </c>
+      <c r="X15">
+        <v>0.9472</v>
+      </c>
+      <c r="Y15">
+        <v>0.9448</v>
+      </c>
+      <c r="Z15">
+        <v>0.9424</v>
+      </c>
+      <c r="AA15">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AB15">
+        <v>0.9376</v>
+      </c>
+      <c r="AC15">
+        <v>0.9352</v>
+      </c>
+      <c r="AD15">
+        <v>0.9328</v>
+      </c>
+      <c r="AE15">
+        <v>0.9304</v>
+      </c>
+      <c r="AF15">
+        <v>0.928</v>
+      </c>
+      <c r="AG15">
+        <v>0.9256</v>
+      </c>
+      <c r="AH15">
+        <v>0.9232</v>
+      </c>
+      <c r="AI15">
+        <v>0.9208</v>
+      </c>
+      <c r="AJ15">
+        <v>0.9184</v>
+      </c>
+      <c r="AK15">
+        <v>0.916</v>
+      </c>
+      <c r="AL15">
+        <v>0.9136</v>
+      </c>
+      <c r="AM15">
+        <v>0.9112</v>
+      </c>
+      <c r="AN15">
+        <v>0.9088000000000001</v>
+      </c>
+      <c r="AO15">
+        <v>0.9064</v>
+      </c>
+      <c r="AP15">
+        <v>0.904</v>
+      </c>
+      <c r="AQ15">
+        <v>0.9016</v>
+      </c>
+      <c r="AR15">
+        <v>0.8992</v>
+      </c>
+      <c r="AS15">
+        <v>0.8968</v>
+      </c>
+      <c r="AT15">
+        <v>0.8944</v>
+      </c>
+      <c r="AU15">
+        <v>0.892</v>
+      </c>
+      <c r="AV15">
+        <v>0.8895999999999999</v>
+      </c>
+      <c r="AW15">
+        <v>0.8872</v>
+      </c>
+      <c r="AX15">
+        <v>0.8848</v>
+      </c>
+      <c r="AY15">
+        <v>0.8824</v>
       </c>
       <c r="AZ15">
         <v>0.88</v>
